--- a/Exams/Exam-02/Exam-02-2/CheckList.xlsx
+++ b/Exams/Exam-02/Exam-02-2/CheckList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\WebDevelopment\Exams\Exam-02\Exam-02-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29299D7-7622-490F-89E6-6F786C9A628F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED33B44-3889-440B-919C-A7DE55B09E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Criterios</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Los valores de Balance y sobregiro deben actualizarse segun las reglas</t>
+  </si>
+  <si>
+    <t>NO HAY ENTREGA</t>
   </si>
 </sst>
 </file>
@@ -323,17 +326,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color theme="9"/>
@@ -633,7 +626,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,7 +657,9 @@
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="D2" s="13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">

--- a/Exams/Exam-02/Exam-02-2/CheckList.xlsx
+++ b/Exams/Exam-02/Exam-02-2/CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\WebDevelopment\Exams\Exam-02\Exam-02-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED33B44-3889-440B-919C-A7DE55B09E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B0239B-C66F-4724-95CD-6C99998AF13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>Criterios</t>
   </si>
@@ -146,7 +146,31 @@
     <t>Los valores de Balance y sobregiro deben actualizarse segun las reglas</t>
   </si>
   <si>
-    <t>NO HAY ENTREGA</t>
+    <t>No</t>
+  </si>
+  <si>
+    <t>No cumple con el diseño, botones y muestra el Sobregiro</t>
+  </si>
+  <si>
+    <t>No hay Deposito ni retiro</t>
+  </si>
+  <si>
+    <t>El Tipo de Cta debe ser A o C en Radio Btn</t>
+  </si>
+  <si>
+    <t>No Cumple con el Diseño, RadioBtn, Botones, Readonly, Titulos</t>
+  </si>
+  <si>
+    <t>Falta el Display</t>
+  </si>
+  <si>
+    <t>No inyecta servicio</t>
+  </si>
+  <si>
+    <t>No usa Servicio</t>
+  </si>
+  <si>
+    <t>Incorrecto uso del Contexto, debe ser dentro del servicio</t>
   </si>
 </sst>
 </file>
@@ -625,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -657,20 +681,20 @@
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C3" s="9">
-        <f t="shared" ref="C3:C10" si="0">IF(B3="SI",0.2,0)</f>
-        <v>0.2</v>
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -681,7 +705,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C3:C10" si="0">IF(B4="SI",0.2,0)</f>
         <v>0.2</v>
       </c>
     </row>
@@ -690,11 +714,13 @@
         <v>10</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C5" s="9">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -702,11 +728,14 @@
         <v>14</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -714,11 +743,14 @@
         <v>15</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -798,11 +830,13 @@
         <v>21</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C15" s="9">
-        <f>IF(B15="SI",0.2,0)</f>
-        <v>0.2</v>
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -842,11 +876,13 @@
         <v>26</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C19" s="9">
-        <f>IF(B19="SI",0.5,0)</f>
-        <v>0.5</v>
+        <v>0.1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -854,11 +890,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C20" s="9">
-        <f>IF(B20="SI",0.5,0)</f>
-        <v>0.5</v>
+        <v>0.1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -874,11 +912,11 @@
         <v>30</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C22" s="9">
         <f t="shared" ref="C22:C29" si="1">IF(B22="SI",0.2,0)</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -886,11 +924,11 @@
         <v>25</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C23" s="9">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -898,11 +936,11 @@
         <v>27</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C24" s="9">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -910,11 +948,14 @@
         <v>31</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C25" s="9">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -922,11 +963,11 @@
         <v>32</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C26" s="9">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -934,11 +975,14 @@
         <v>33</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C27" s="9">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -958,11 +1002,14 @@
         <v>35</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C29" s="9">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -972,7 +1019,7 @@
       <c r="B30" s="5"/>
       <c r="C30" s="7">
         <f>SUM(C2:C29)</f>
-        <v>5.0000000000000009</v>
+        <v>2.1</v>
       </c>
       <c r="D30" s="3"/>
     </row>
@@ -1008,10 +1055,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4 B24:B26 B15:B17 B13 B19" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4 B24:B27 B15:B17 B13 B19 B29" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Si,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14 B27:B29 B5:B10 B18 B20:B23" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14 B20:B23 B5:B10 B18 B28" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"SI,No"</formula1>
     </dataValidation>
   </dataValidations>
